--- a/src/test/java/com/example/demo1/Data.xlsx
+++ b/src/test/java/com/example/demo1/Data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BertinaAyuure\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BertinaAyuure\IdeaProjects\demo1\src\test\java\com\example\demo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{134C4B3D-C3C6-47CE-994C-B6F13A46602E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C089871-C33F-4EF4-B403-1ED26EBFEA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6FC841A6-7947-4D63-989D-B2D5936476A0}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" xr2:uid="{6FC841A6-7947-4D63-989D-B2D5936476A0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>firstname</t>
   </si>
@@ -86,7 +86,22 @@
     <t>Jk</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>tye</t>
+  </si>
+  <si>
+    <t>jhd</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>uty</t>
+  </si>
+  <si>
+    <t>jhfy</t>
+  </si>
+  <si>
+    <t>test3h@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -449,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E8EA60-E20A-4409-BC30-11738ECD5768}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,8 +546,31 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -541,6 +579,8 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{442D5ECB-90AC-4927-AD66-C2558C8BCB0E}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{13407EC3-E9F4-45AC-9CD8-4C3804C382D0}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{2ADD27B1-3F4F-4F06-8B8D-960C7B3C5FBE}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{8E2DA17F-AB38-4DE8-9CB2-E82916CFAE81}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{13122C9F-AE58-494A-BE14-7BDB8B5A7A66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
